--- a/biology/Neurosciences/Noyau_ventrolatéral_préoptique/Noyau_ventrolatéral_préoptique.xlsx
+++ b/biology/Neurosciences/Noyau_ventrolatéral_préoptique/Noyau_ventrolatéral_préoptique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Noyau_ventrolat%C3%A9ral_pr%C3%A9optique</t>
+          <t>Noyau_ventrolatéral_préoptique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau ventrolatéral préoptique, ou VLPO (de l'anglais : ventrolateral preoptic nucleus), est une structure du cerveau composée de neurones GABAergiques, située dans l'hypothalamus à proximité du chiasma optique, qui joue un rôle inhibiteur dans le cycle veille/sommeil, et donc favorise le sommeil. 
 Activé par l'accumulation quotidienne d'adénosine, le VLPO envoie aux centres de stimulation de l'éveil le signal d'arrêter la production d'histamine et d'autres neurotransmetteurs stimulateurs. Ainsi, lors du passage à l'état de sommeil lent, il inhibe les neurones à orexine de l'hypothalamus latéral, le noyau tubéromamillaire de l'hypothalamus, et d'autres structures du tronc cérébral.
